--- a/WMM_All_configurations/MCBXFA_02_Inner_Iron_600_20220510/Roxie_vs_MM_SkewMCBXFA_02_Inner_Iron_600_20220510.xlsx
+++ b/WMM_All_configurations/MCBXFA_02_Inner_Iron_600_20220510/Roxie_vs_MM_SkewMCBXFA_02_Inner_Iron_600_20220510.xlsx
@@ -618,49 +618,49 @@
         <v>0.03764063677835036</v>
       </c>
       <c r="R2">
-        <v>-506.7265263990728</v>
+        <v>0.01463892547037577</v>
       </c>
       <c r="S2">
-        <v>-36.26819966954229</v>
+        <v>0.00141215296033211</v>
       </c>
       <c r="T2">
-        <v>-0.9698828417572424</v>
+        <v>5.454198232676336E-05</v>
       </c>
       <c r="U2">
-        <v>0.02509995865046097</v>
+        <v>-8.040142526557588E-07</v>
       </c>
       <c r="V2">
-        <v>-0.04766639009244159</v>
+        <v>9.830035190006227E-07</v>
       </c>
       <c r="W2">
-        <v>0.005455193700233254</v>
+        <v>-9.245954587075519E-07</v>
       </c>
       <c r="X2">
-        <v>-0.02365414841562918</v>
+        <v>7.419211018965311E-07</v>
       </c>
       <c r="Y2">
-        <v>-0.01860716671230337</v>
+        <v>6.643875594413854E-07</v>
       </c>
       <c r="Z2">
-        <v>-0.04074048993808185</v>
+        <v>9.993268171677071E-07</v>
       </c>
       <c r="AA2">
-        <v>0.08111972467532483</v>
+        <v>-2.542159181247002E-06</v>
       </c>
       <c r="AB2">
-        <v>0.005526977671832082</v>
+        <v>-1.063000631743917E-07</v>
       </c>
       <c r="AC2">
-        <v>0.0160868691478208</v>
+        <v>-6.277928083875839E-07</v>
       </c>
       <c r="AD2">
-        <v>-0.07235956285197402</v>
+        <v>1.938132214561294E-06</v>
       </c>
       <c r="AE2">
-        <v>0.006584135528506257</v>
+        <v>-3.946715831337595E-07</v>
       </c>
       <c r="AF2">
-        <v>-0.1011787126675776</v>
+        <v>2.339967407592905E-06</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -716,49 +716,49 @@
         <v>0.03764063677835036</v>
       </c>
       <c r="R3">
-        <v>-227.365185202805</v>
+        <v>0.1915074386132086</v>
       </c>
       <c r="S3">
-        <v>-19.74355796644368</v>
+        <v>0.007564351987168769</v>
       </c>
       <c r="T3">
-        <v>-3.931883658503619</v>
+        <v>0.01510192915113025</v>
       </c>
       <c r="U3">
-        <v>0.1668804729245199</v>
+        <v>1.931235276659419E-05</v>
       </c>
       <c r="V3">
-        <v>0.0507993524914901</v>
+        <v>-0.0008751033329785377</v>
       </c>
       <c r="W3">
-        <v>-0.007036138791104213</v>
+        <v>-3.064148130251899E-05</v>
       </c>
       <c r="X3">
-        <v>-0.005296282186903855</v>
+        <v>-0.0001265267828990458</v>
       </c>
       <c r="Y3">
-        <v>-0.01230464106693177</v>
+        <v>-1.000858501059038E-06</v>
       </c>
       <c r="Z3">
-        <v>0.003152918567896873</v>
+        <v>2.597608896544229E-05</v>
       </c>
       <c r="AA3">
-        <v>0.02145437210630252</v>
+        <v>-9.064687956694585E-07</v>
       </c>
       <c r="AB3">
-        <v>0.002411604044184461</v>
+        <v>1.643409258886945E-06</v>
       </c>
       <c r="AC3">
-        <v>-0.001497776909519523</v>
+        <v>-6.971314100560452E-08</v>
       </c>
       <c r="AD3">
-        <v>-0.004795516862897471</v>
+        <v>-1.657249320790441E-05</v>
       </c>
       <c r="AE3">
-        <v>0.006386182358791445</v>
+        <v>2.093482330864965E-06</v>
       </c>
       <c r="AF3">
-        <v>0.0005124172718750669</v>
+        <v>-1.89016835541236E-05</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -814,49 +814,49 @@
         <v>0.03764063677835036</v>
       </c>
       <c r="R4">
-        <v>0.4493974322779363</v>
+        <v>0.4493927569752659</v>
       </c>
       <c r="S4">
-        <v>0.01672028493018781</v>
+        <v>0.01672010369830522</v>
       </c>
       <c r="T4">
-        <v>0.04170379278817599</v>
+        <v>0.04170324148176154</v>
       </c>
       <c r="U4">
-        <v>-0.0008127676124087846</v>
+        <v>-0.0008127587750616519</v>
       </c>
       <c r="V4">
-        <v>-0.002473883896123582</v>
+        <v>-0.002473859915468567</v>
       </c>
       <c r="W4">
-        <v>-0.0001685260656199642</v>
+        <v>-0.0001685251631970967</v>
       </c>
       <c r="X4">
-        <v>-0.0004027282191684538</v>
+        <v>-0.0004027237224865842</v>
       </c>
       <c r="Y4">
-        <v>-1.338983515918119E-06</v>
+        <v>-1.339009105704611E-06</v>
       </c>
       <c r="Z4">
-        <v>1.312926596116033E-05</v>
+        <v>1.312882368526758E-05</v>
       </c>
       <c r="AA4">
-        <v>6.63078381894161E-06</v>
+        <v>6.630778455479374E-06</v>
       </c>
       <c r="AB4">
-        <v>7.226004176873669E-06</v>
+        <v>7.225681601377494E-06</v>
       </c>
       <c r="AC4">
-        <v>-3.299027275296664E-06</v>
+        <v>-3.2990976709217E-06</v>
       </c>
       <c r="AD4">
-        <v>4.979389357356969E-06</v>
+        <v>4.979468139097218E-06</v>
       </c>
       <c r="AE4">
-        <v>-7.408931919995793E-06</v>
+        <v>-7.409051268352657E-06</v>
       </c>
       <c r="AF4">
-        <v>-4.725815413982449E-08</v>
+        <v>-4.687450102856368E-08</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -1010,49 +1010,49 @@
         <v>0.03764063677835036</v>
       </c>
       <c r="R6">
-        <v>0.7336836307462271</v>
+        <v>0.7336463186779769</v>
       </c>
       <c r="S6">
-        <v>0.02070728362609626</v>
+        <v>0.02070657828966237</v>
       </c>
       <c r="T6">
-        <v>0.05193029483740554</v>
+        <v>0.05192458508802378</v>
       </c>
       <c r="U6">
-        <v>-0.0006427800932622857</v>
+        <v>-0.0006427893663666269</v>
       </c>
       <c r="V6">
-        <v>-0.006064837933724473</v>
+        <v>-0.006063730792680811</v>
       </c>
       <c r="W6">
-        <v>-0.0001669058601931909</v>
+        <v>-0.0001669002519611993</v>
       </c>
       <c r="X6">
-        <v>-0.003239883383793465</v>
+        <v>-0.00323903921839681</v>
       </c>
       <c r="Y6">
-        <v>-3.557390503627456E-06</v>
+        <v>-3.557158391825837E-06</v>
       </c>
       <c r="Z6">
-        <v>0.002934818230703409</v>
+        <v>0.002933944641203898</v>
       </c>
       <c r="AA6">
-        <v>5.98102321710602E-06</v>
+        <v>5.98095564564697E-06</v>
       </c>
       <c r="AB6">
-        <v>-0.001585758528595998</v>
+        <v>-0.001585275761174224</v>
       </c>
       <c r="AC6">
-        <v>-3.449663629608164E-06</v>
+        <v>-3.449716212711299E-06</v>
       </c>
       <c r="AD6">
-        <v>0.0006129648567035826</v>
+        <v>0.000612774247380056</v>
       </c>
       <c r="AE6">
-        <v>-3.592409039864846E-06</v>
+        <v>-3.592598394549926E-06</v>
       </c>
       <c r="AF6">
-        <v>-0.0001673312652267132</v>
+        <v>-0.0001672795585071591</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1108,49 +1108,49 @@
         <v>0.03764063677835036</v>
       </c>
       <c r="R7">
-        <v>105.2800992812356</v>
+        <v>1.448065781083953</v>
       </c>
       <c r="S7">
-        <v>0.7832715440462812</v>
+        <v>0.005571209329262463</v>
       </c>
       <c r="T7">
-        <v>-8.240258121134568</v>
+        <v>1.163443047236701</v>
       </c>
       <c r="U7">
-        <v>-0.004149490925661859</v>
+        <v>9.159232927933242E-05</v>
       </c>
       <c r="V7">
-        <v>-3.738582750049267</v>
+        <v>-0.5765314700226601</v>
       </c>
       <c r="W7">
-        <v>-0.003592570794600292</v>
+        <v>-7.542552327761188E-05</v>
       </c>
       <c r="X7">
-        <v>-2.637583783252583</v>
+        <v>-0.1126368539820084</v>
       </c>
       <c r="Y7">
-        <v>0.001450863138335099</v>
+        <v>2.68586666216847E-06</v>
       </c>
       <c r="Z7">
-        <v>-1.385926408769692</v>
+        <v>0.07243936636103107</v>
       </c>
       <c r="AA7">
-        <v>-0.0009994469405432607</v>
+        <v>-2.737789357151291E-06</v>
       </c>
       <c r="AB7">
-        <v>-0.8785102085623572</v>
+        <v>-0.08773909671812553</v>
       </c>
       <c r="AC7">
-        <v>-0.0003560227665888279</v>
+        <v>6.210903687960008E-07</v>
       </c>
       <c r="AD7">
-        <v>-0.353241166349535</v>
+        <v>0.04300646116931833</v>
       </c>
       <c r="AE7">
-        <v>-0.0002076459765332894</v>
+        <v>1.060236444961737E-06</v>
       </c>
       <c r="AF7">
-        <v>-0.1917896709063655</v>
+        <v>0.004177124478312502</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1206,49 +1206,49 @@
         <v>0.03764063677835036</v>
       </c>
       <c r="R8">
-        <v>269.7823546950096</v>
+        <v>0.0483354075648443</v>
       </c>
       <c r="S8">
-        <v>3.855652840467855</v>
+        <v>0.0009566595609196547</v>
       </c>
       <c r="T8">
-        <v>-0.5729623834209503</v>
+        <v>-0.0001731044517259024</v>
       </c>
       <c r="U8">
-        <v>-0.0008179500907845318</v>
+        <v>1.290428993134621E-07</v>
       </c>
       <c r="V8">
-        <v>-0.02233037482404465</v>
+        <v>-2.753215289616471E-06</v>
       </c>
       <c r="W8">
-        <v>-0.01318264973593808</v>
+        <v>-2.601357981481483E-06</v>
       </c>
       <c r="X8">
-        <v>-0.0137540298274969</v>
+        <v>-2.279049546161856E-06</v>
       </c>
       <c r="Y8">
-        <v>-6.425767928124116E-05</v>
+        <v>9.416919247788845E-08</v>
       </c>
       <c r="Z8">
-        <v>-0.008907175013527993</v>
+        <v>4.805505696602163E-07</v>
       </c>
       <c r="AA8">
-        <v>0.01827174553327056</v>
+        <v>2.030070236388733E-06</v>
       </c>
       <c r="AB8">
-        <v>-0.02700939565639115</v>
+        <v>-4.621547622708025E-06</v>
       </c>
       <c r="AC8">
-        <v>-0.007658160588164015</v>
+        <v>-1.305868100098961E-06</v>
       </c>
       <c r="AD8">
-        <v>-0.024789631445696</v>
+        <v>-5.368057707662112E-06</v>
       </c>
       <c r="AE8">
-        <v>-0.01352360735764606</v>
+        <v>-2.176308543964261E-06</v>
       </c>
       <c r="AF8">
-        <v>-0.002060793399062003</v>
+        <v>1.786583899709863E-06</v>
       </c>
     </row>
   </sheetData>
